--- a/biology/Botanique/Coccosphère/Coccosphère.xlsx
+++ b/biology/Botanique/Coccosphère/Coccosphère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coccosph%C3%A8re</t>
+          <t>Coccosphère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coccosphère correspond à l'exosquelette (en carbonate de calcium le plus souvent) synthétisé par des algues unicellulaires planctoniques (coccolithophoridés dans les Haptophyta). Elle est constituée de piécettes polycristallines agencées entre elles, appelées coccolithes, pour former une sphère.
 </t>
